--- a/多语言文件.xlsx
+++ b/多语言文件.xlsx
@@ -1,24 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proAddress\node\github\express_mongodDB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA07DF21-340F-4047-A3D3-7E171A59DFD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="11486" yWindow="3386" windowWidth="10080" windowHeight="9548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="多语言模块" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+  <si>
+    <t>变量</t>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>英文</t>
+  </si>
+  <si>
+    <t>越南语</t>
+  </si>
+  <si>
+    <t>泰语</t>
+  </si>
+  <si>
+    <t>印度语</t>
+  </si>
+  <si>
+    <t>member_card_number</t>
+  </si>
+  <si>
+    <t>卡号_x000D_</t>
+  </si>
+  <si>
+    <t>Card number</t>
+  </si>
+  <si>
+    <t>Số thẻ</t>
+  </si>
+  <si>
+    <t>หมายเลขบัตร</t>
+  </si>
+  <si>
+    <t>member_name</t>
+  </si>
+  <si>
+    <t>姓名_x000D_</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>ชื่อ</t>
+  </si>
+  <si>
+    <t>解释中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,10 +118,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,130 +454,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>变量</v>
-      </c>
-      <c r="B1" t="str">
-        <v>中文</v>
-      </c>
-      <c r="C1" t="str">
-        <v>中文注释</v>
-      </c>
-      <c r="D1" t="str">
-        <v>英文</v>
-      </c>
-      <c r="E1" t="str">
-        <v>越南语</v>
-      </c>
-      <c r="F1" t="str">
-        <v>泰语</v>
-      </c>
-      <c r="G1" t="str">
-        <v>印度语</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>member_card_number</v>
-      </c>
-      <c r="B2" t="str">
-        <v>卡号_x000d_</v>
-      </c>
-      <c r="C2" t="str">
-        <v>卡号_x000d_</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Card number</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Số thẻ</v>
-      </c>
-      <c r="F2" t="str">
-        <v>หมายเลขบัตร</v>
-      </c>
-      <c r="G2" t="str">
-        <v>member_card_number</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>member_name</v>
-      </c>
-      <c r="B3" t="str">
-        <v>姓名_x000d_</v>
-      </c>
-      <c r="C3" t="str">
-        <v>姓名_x000d_</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Name</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Tên</v>
-      </c>
-      <c r="F3" t="str">
-        <v>ชื่อ</v>
-      </c>
-      <c r="G3" t="str">
-        <v>member_name</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>member_card_number</v>
-      </c>
-      <c r="B4" t="str">
-        <v>卡号_x000d_</v>
-      </c>
-      <c r="C4" t="str">
-        <v>卡号_x000d_</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Card number</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Số thẻ</v>
-      </c>
-      <c r="F4" t="str">
-        <v>หมายเลขบัตร</v>
-      </c>
-      <c r="G4" t="str">
-        <v>member_card_number</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>member_name</v>
-      </c>
-      <c r="B5" t="str">
-        <v>姓名_x000d_</v>
-      </c>
-      <c r="C5" t="str">
-        <v>姓名_x000d_</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Name</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Tên</v>
-      </c>
-      <c r="F5" t="str">
-        <v>ชื่อ</v>
-      </c>
-      <c r="G5" t="str">
-        <v>member_name</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
+    <ignoredError sqref="A2:G3 A1:B1 D1:G1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>